--- a/Starnes-Timesheet-Spring2020.xlsx
+++ b/Starnes-Timesheet-Spring2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="68">
   <si>
     <t xml:space="preserve">Total</t>
   </si>
@@ -279,6 +279,12 @@
     <t xml:space="preserve">Worked on frame for arduino code to communicate with power switch. 
 Completed part specification and BOM to submit for approval.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Establish test of functionality of solenoid in response to float switch being triggered, through arduino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue testing and build up of experiment with AWG and relay controller </t>
+  </si>
 </sst>
 </file>
 
@@ -288,7 +294,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -362,6 +368,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -389,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -482,6 +495,13 @@
       <bottom style="medium"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -508,7 +528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -639,6 +659,14 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -720,24 +748,24 @@
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,7 +847,7 @@
       </c>
       <c r="C3" s="3" t="n">
         <f aca="false">SUM(D3:I3)</f>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>7</v>
@@ -829,7 +857,7 @@
       </c>
       <c r="F3" s="4" t="n">
         <f aca="false">'Feb 17-Mar 1-2020'!D17</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">'Mar 2-15 2020'!D17</f>
@@ -1213,7 +1241,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1228,20 +1256,20 @@
   </sheetPr>
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1407,7 +1435,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1422,19 +1450,19 @@
   </sheetPr>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1645,7 +1673,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1658,21 +1686,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6761133603239"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.5546558704454"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1700,9 +1728,15 @@
       <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="15" t="n">
+        <v>43878</v>
+      </c>
+      <c r="D4" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F4" s="16"/>
       <c r="G4" s="18"/>
     </row>
@@ -1710,8 +1744,10 @@
       <c r="B5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
+      <c r="C5" s="15" t="n">
+        <v>43879</v>
+      </c>
+      <c r="D5" s="33"/>
       <c r="E5" s="17"/>
       <c r="F5" s="16"/>
       <c r="G5" s="18"/>
@@ -1720,7 +1756,9 @@
       <c r="B6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="15" t="n">
+        <v>43880</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="16"/>
@@ -1730,9 +1768,15 @@
       <c r="B7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="15" t="n">
+        <v>43881</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="16"/>
       <c r="G7" s="18"/>
     </row>
@@ -1740,9 +1784,15 @@
       <c r="B8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="15" t="n">
+        <v>43882</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F8" s="16"/>
       <c r="G8" s="18"/>
     </row>
@@ -1758,9 +1808,15 @@
       <c r="B10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="22"/>
+      <c r="C10" s="15" t="n">
+        <v>43885</v>
+      </c>
+      <c r="D10" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="F10" s="23"/>
       <c r="G10" s="22"/>
     </row>
@@ -1768,9 +1824,15 @@
       <c r="B11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="15" t="n">
+        <v>43886</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="16"/>
       <c r="G11" s="17"/>
     </row>
@@ -1778,7 +1840,9 @@
       <c r="B12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="n">
+        <v>43887</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="16"/>
@@ -1788,9 +1852,15 @@
       <c r="B13" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="15" t="n">
+        <v>43888</v>
+      </c>
+      <c r="D13" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="16"/>
       <c r="G13" s="17"/>
     </row>
@@ -1798,9 +1868,15 @@
       <c r="B14" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="15" t="n">
+        <v>43889</v>
+      </c>
+      <c r="D14" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="17"/>
     </row>
@@ -1823,18 +1899,26 @@
       </c>
       <c r="D17" s="27" t="n">
         <f aca="false">SUM(D4:D14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="28" t="s">
         <v>58</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="34" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1849,19 +1933,19 @@
   </sheetPr>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2023,7 +2107,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2038,19 +2122,19 @@
   </sheetPr>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2212,7 +2296,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2227,19 +2311,19 @@
   </sheetPr>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2401,7 +2485,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2416,19 +2500,19 @@
   </sheetPr>
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2590,7 +2674,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2605,19 +2689,19 @@
   </sheetPr>
   <dimension ref="A2:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="85.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.85"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2729,7 +2813,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
